--- a/dados/previsoes/previsao_rodada-28.xlsx
+++ b/dados/previsoes/previsao_rodada-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,72 +486,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>empate</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>vitoria_fora</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>empate</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0_x</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1_x</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2_x</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>3_x</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>4_x</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>5_x</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>0_y</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1_y</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2_y</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>3_y</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>4_y</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>5_y</t>
         </is>
       </c>
     </row>
@@ -587,49 +527,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.2827381446094781</v>
+        <v>0.4551506182293668</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2113605814148185</v>
+        <v>0.321658951020021</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5059012739757034</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.620413873104198</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.2961660315341831</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.07069016509562732</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01124841903793253</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.001342410192582254</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0001281648643473684</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6864833085820778</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2582367381698745</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04857089175143663</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.006090358643387863</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0005727576805915672</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.309123713530898e-05</v>
+        <v>0.2231703056620811</v>
       </c>
     </row>
     <row r="3">
@@ -664,49 +568,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3787711782065833</v>
+        <v>0.4227784385773971</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2190156892636413</v>
+        <v>0.244908269141326</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4022131325297754</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4681040923469642</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.3553212401160757</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1348558854128172</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03412144237804617</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.006475094652307633</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.000983003011228359</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.6053359734155875</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.3038614956419536</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.07626492773326018</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.01276094379748356</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.001601407994236353</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0001607722817185242</v>
+        <v>0.3319977642648621</v>
       </c>
     </row>
     <row r="4">
@@ -741,49 +609,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.3844511240477471</v>
+        <v>0.6008864613342574</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3136846157467348</v>
+        <v>0.2566498758481972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3018642602055182</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3298960896017292</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.3658473585541703</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2028582544319465</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.07498841694307899</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.02079011780186954</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.004611154797879809</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.3788640534687464</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3677170532368029</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1784490109356761</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.05773288496978149</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.01400856464316074</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.002719280471978201</v>
+        <v>0.1422770039351523</v>
       </c>
     </row>
     <row r="5">
@@ -818,49 +650,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.2038259804887558</v>
+        <v>0.3835930460989073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2301532336882866</v>
+        <v>0.3452168308546312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5660207858229576</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7237227176031613</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.2340135309875596</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0378337803645493</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.004077812454212463</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0003296370515615604</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.131742682770033e-05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6987162066641651</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.2504971792241434</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.04490294929527273</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.005366061370853957</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0004809474948920973</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.448495674676537e-05</v>
+        <v>0.2711835118095078</v>
       </c>
     </row>
     <row r="6">
@@ -895,49 +691,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.3549645280051974</v>
+        <v>0.6376413550810062</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2270549807052303</v>
+        <v>0.2660048551529969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4179804912895723</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4983240195426972</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.3470850575544058</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1208731994176164</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.02806292006229757</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.004886489434076275</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.000680692641716036</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6095959180276738</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.3017249681792451</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.07467073985445685</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.01231965084860465</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0015244304261015</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.0001509061029460726</v>
+        <v>0.09623295797560684</v>
       </c>
     </row>
     <row r="7">
@@ -972,49 +732,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.2603050630921466</v>
+        <v>0.5773039276499334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3009985405450323</v>
+        <v>0.2553689895632889</v>
       </c>
       <c r="M7" t="n">
-        <v>0.438696396362821</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5921046312756558</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.3103054095890039</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.08131117553729429</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.01420430123130103</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.001861018846453024</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0001950615431456108</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5562356687511049</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.3262673793104737</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.09568822064317957</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.01870906328261276</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.002743512053208178</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.0003218486472529553</v>
+        <v>0.1671196981347741</v>
       </c>
     </row>
     <row r="8">
@@ -1049,49 +773,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.4190827146621965</v>
+        <v>0.5497349994793018</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2062944341885884</v>
+        <v>0.2093126047801441</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3746228511492151</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.4169927706199619</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.3647379028478002</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1595156404942273</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.04650872012224353</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.01017013617304563</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.001779135947090035</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.5953871862936877</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.3087340672024115</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0800459990117474</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.01383577354204081</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.001793612096825816</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.0001860131257051715</v>
+        <v>0.2393807567699767</v>
       </c>
     </row>
     <row r="9">
@@ -1126,49 +814,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4153052369239316</v>
+        <v>0.1891126093573039</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2923035295011093</v>
+        <v>0.247090995695798</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2923912335749591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.2979710502440755</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.3607711141443574</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.2184034265985691</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.08814463405350879</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.02668047601208476</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.006460724992509908</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.381080971053718</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3676453532080558</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.1773417147564988</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.05702974985420683</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.013754768750682</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.002653964485110324</v>
+        <v>0.5635060875505689</v>
       </c>
     </row>
     <row r="10">
@@ -1203,49 +855,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.3592668073900644</v>
+        <v>0.5708393708493918</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2402514326682502</v>
+        <v>0.2591907973306282</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4004817599416854</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.4780802115325302</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.3528120826656842</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.1301835577714848</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.03202414646345086</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.005908268914301326</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0008720330230450189</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.579499488159568</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.3161694151746318</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.08624951456759815</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.01568563857668418</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.002139483846302084</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.0002334564120528233</v>
+        <v>0.1697867465884401</v>
       </c>
     </row>
     <row r="11">
@@ -1280,49 +896,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.442926452367021</v>
+        <v>0.7503233104264291</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1577501844248957</v>
+        <v>0.1710048446417084</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3993233632080833</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.4342450405155288</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.3622238915513024</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.1510738585002649</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0420058997662326</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.008759766411710234</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.001461385339007275</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.6855443411320555</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.2588218486221135</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.0488580718305895</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.006148659642945585</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.0005803444649209093</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4.38208933357696e-05</v>
+        <v>0.07691895990354281</v>
       </c>
     </row>
   </sheetData>

--- a/dados/previsoes/previsao_rodada-28.xlsx
+++ b/dados/previsoes/previsao_rodada-28.xlsx
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4551506182293668</v>
+        <v>0.4837974608482792</v>
       </c>
       <c r="L2" t="n">
-        <v>0.321658951020021</v>
+        <v>0.3210874079147117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2231703056620811</v>
+        <v>0.1950495154126233</v>
       </c>
     </row>
     <row r="3">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.4227784385773971</v>
+        <v>0.4074094470395971</v>
       </c>
       <c r="L3" t="n">
-        <v>0.244908269141326</v>
+        <v>0.2865897699086948</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3319977642648621</v>
+        <v>0.3058022609471653</v>
       </c>
     </row>
     <row r="4">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.6008864613342574</v>
+        <v>0.5135871684771934</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2566498758481972</v>
+        <v>0.3176039234932694</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1422770039351523</v>
+        <v>0.1687349786689006</v>
       </c>
     </row>
     <row r="5">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.3835930460989073</v>
+        <v>0.3133286326991629</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3452168308546312</v>
+        <v>0.3712647494078228</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2711835118095078</v>
+        <v>0.3153993479273958</v>
       </c>
     </row>
     <row r="6">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.6376413550810062</v>
+        <v>0.6004720698580047</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2660048551529969</v>
+        <v>0.2898071048592091</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09623295797560684</v>
+        <v>0.1095777672858414</v>
       </c>
     </row>
     <row r="7">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.5773039276499334</v>
+        <v>0.5212359943907277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2553689895632889</v>
+        <v>0.2894844285655733</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1671196981347741</v>
+        <v>0.1890837593888994</v>
       </c>
     </row>
     <row r="8">
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.5497349994793018</v>
+        <v>0.5873772282458865</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2093126047801441</v>
+        <v>0.21944358417875</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2393807567699767</v>
+        <v>0.1908901443084087</v>
       </c>
     </row>
     <row r="9">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.1891126093573039</v>
+        <v>0.1269674302347027</v>
       </c>
       <c r="L9" t="n">
-        <v>0.247090995695798</v>
+        <v>0.2440422886037763</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5635060875505689</v>
+        <v>0.6283055813026743</v>
       </c>
     </row>
     <row r="10">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.5708393708493918</v>
+        <v>0.5694359807353061</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2591907973306282</v>
+        <v>0.2772633647368432</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1697867465884401</v>
+        <v>0.1530314331122971</v>
       </c>
     </row>
     <row r="11">
@@ -896,13 +896,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.7503233104264291</v>
+        <v>0.6875345493338164</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1710048446417084</v>
+        <v>0.2235229517672589</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07691895990354281</v>
+        <v>0.08806180900614181</v>
       </c>
     </row>
   </sheetData>

--- a/dados/previsoes/previsao_rodada-28.xlsx
+++ b/dados/previsoes/previsao_rodada-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,96 @@
           <t>vitoria_fora</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_y</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1x</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>3x</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>4x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>5x</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>6x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>7x</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>0y</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2y</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>4y</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>6y</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,13 +617,67 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4837974608482792</v>
+        <v>0.4294002346068564</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3210874079147117</v>
+        <v>0.3659466458946156</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1950495154126233</v>
+        <v>0.2046395870962977</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.035875791669022</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6332229381599624</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3549154128114384</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3676482842215866</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1904189787368969</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06575013678262991</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01702724374801332</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.003527621919482939</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0006090296914255638</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.012558767934235e-05</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5308780537019797</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3361641609698099</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1064334288566908</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.02246536284635769</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.003556395767100071</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0004503982753805523</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4.753375321310878e-05</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.299923267339333e-06</v>
       </c>
     </row>
     <row r="3">
@@ -568,13 +712,67 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.4074094470395971</v>
+        <v>0.4023954684990623</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2865897699086948</v>
+        <v>0.2826847198630401</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3058022609471653</v>
+        <v>0.3146907078763532</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.493687034878264</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.299986056489819</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.224543228700318</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.33539730947937</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2504893063511938</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1247175430908093</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04657224428415324</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01391287149448461</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.003463579294873171</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0007390719267178366</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2725355931103366</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3542924709406203</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2302876360710654</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.09979023862479564</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.03243147969650652</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.008432094279358227</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.001826934165028877</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0003392841343803442</v>
       </c>
     </row>
     <row r="4">
@@ -609,13 +807,67 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.5135871684771934</v>
+        <v>0.5774308886762027</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3176039234932694</v>
+        <v>0.2942501399696761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1687349786689006</v>
+        <v>0.128179742475894</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.45634524868526</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5610515226884353</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2330865934654262</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3394545529256062</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2471815126488929</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1199938738363502</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04368812700822678</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01272499923847785</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.003088665363413463</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0006425947323979898</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5706087402406</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3201409025713185</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.08980777043124412</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.01679559544990098</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.002355798600406475</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0002643448783810677</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.471851608843118e-05</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.981194441430414e-06</v>
       </c>
     </row>
     <row r="5">
@@ -650,13 +902,67 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.3133286326991629</v>
+        <v>0.3602521719232217</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3712647494078228</v>
+        <v>0.3876830850558902</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3153993479273958</v>
+        <v>0.2520599621919216</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8794836078206645</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6913967709979081</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4149971576460051</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3649831974418296</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1604983696400311</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.04705189506011639</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01034534260556761</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.001819711847777088</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0002667344568461666</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.35126546338789e-05</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5008759712115513</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3463040291661077</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1197167437745061</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02759059002669247</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.004769011213595564</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.000659455790786558</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.599093406094973e-05</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.505698062122225e-06</v>
       </c>
     </row>
     <row r="6">
@@ -691,13 +997,67 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.6004720698580047</v>
+        <v>0.6142055472624434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2898071048592091</v>
+        <v>0.3004624762830935</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1095777672858414</v>
+        <v>0.08524368229795537</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.361792109435287</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3594508045307269</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2562012246605033</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3488928061703305</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2375597352407455</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1078356576567943</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03671243692819683</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.009998941385391823</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.002269413246888749</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0004414955789515735</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.6980595919826462</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2509180819485531</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.04509635321385715</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.005403306814707593</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0004855557454182511</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.490668066702145e-05</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.091205741543001e-06</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.073836551767013e-07</v>
       </c>
     </row>
     <row r="7">
@@ -732,13 +1092,67 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.5212359943907277</v>
+        <v>0.5532975590578429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2894844285655733</v>
+        <v>0.2953046166223483</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1890837593888994</v>
+        <v>0.1512497315021322</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.469300077329309</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6566898720981679</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2300864715788163</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3380660704831827</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2483602517516779</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1216385790347556</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.04468089339549842</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01312992802422969</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.003215300710221488</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0006748916545950594</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5185650131982265</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.340536392191728</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1118133999165787</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.02447557576335978</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.004018215679392438</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0005277443081126144</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.776072369916817e-05</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.418697465472051e-06</v>
       </c>
     </row>
     <row r="8">
@@ -773,13 +1187,67 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.5873772282458865</v>
+        <v>0.5290874523954294</v>
       </c>
       <c r="L8" t="n">
-        <v>0.21944358417875</v>
+        <v>0.2411234403650857</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1908901443084087</v>
+        <v>0.2286294000418132</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.00199928176501</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.274731266633602</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.135064980168709</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2703999932893607</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2706702961772817</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1806272461806801</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.09040390428022828</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.03619771028755395</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01207796499953681</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.003454296750607948</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2795060707369972</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.3562951275823537</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2270902696392173</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.09649302235245527</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.03075066815116244</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.007839767632432175</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.00166559948736723</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0003033131063194152</v>
       </c>
     </row>
     <row r="9">
@@ -814,13 +1282,67 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.1269674302347027</v>
+        <v>0.1742055962180927</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2440422886037763</v>
+        <v>0.2865615775291294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6283055813026743</v>
+        <v>0.5390218444847332</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7848170828010909</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.547981098602387</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4562031415549089</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3580360187198168</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1404963918747016</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0367546561383941</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.007211420502472914</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001131929200320554</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0001480595621554913</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.659995337881137e-05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2126769144064149</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3292198436102079</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2548130475967177</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1314819271189965</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.05088288449700575</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.01575314868874667</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.004064262735608801</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.000898771699210921</v>
       </c>
     </row>
     <row r="10">
@@ -855,13 +1377,67 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.5694359807353061</v>
+        <v>0.5454661654139954</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2772633647368432</v>
+        <v>0.2992163437411551</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1530314331122971</v>
+        <v>0.1551855403477535</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.444194315479085</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6603073151107478</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2359360900558003</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3407375600749483</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2460456236652267</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1184458970152756</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0427647227903205</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01235211391136395</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.002973142115823656</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0006133992775405686</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5166925226704858</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3411758523823478</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1126404555336044</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.02479243892208197</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.004092657194921788</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.000540482296809498</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.948073571186163e-05</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.610794985530184e-06</v>
       </c>
     </row>
     <row r="11">
@@ -896,13 +1472,67 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.6875345493338164</v>
+        <v>0.7271720188487459</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2235229517672589</v>
+        <v>0.2026086277222975</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08806180900614181</v>
+        <v>0.06895200621081864</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.046807934309377</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5028126539885427</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1291464904133436</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2643380612662415</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2705246205698507</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1845706466028014</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.09444516597680643</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.03866222301569869</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01318902413776178</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.003856485607281241</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.6048270957245198</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3041147172054282</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.07645636403751825</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.01281440910533957</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.001610811762887683</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0001619873075147039</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.357487800065441e-05</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.750886335828185e-07</v>
       </c>
     </row>
   </sheetData>
